--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2020592.390007559</v>
+        <v>2096122.059672363</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.511665972</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>235.0690254684077</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>115.1187825524132</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>61.86891074510423</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.31656064018927</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>395.1305332164178</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>50.36218625475002</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>54.460791558339</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>201.1407479991918</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>27.77238941128248</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>330.2468901668017</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>20.97516701831656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>110.3363129668687</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052011</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>18.6425165893258</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431774</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2002,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>59.18920197600942</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>136.2042983172081</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>102.1555693376513</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>46.25307783771938</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.68304162068</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>16.56305557307007</v>
+        <v>74.1278448763055</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>178.3814725944364</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274225</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>147.3604984678199</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113147</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>143.6322711582066</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>33.35146980184847</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.24096871741</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>60.54139430664212</v>
+        <v>41.92656778835342</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>47.47994935546885</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>170.960639770913</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.60645091593313</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3955,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.9576419790511</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1190.010945960184</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1190.010945960184</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.010945960184</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.010945960184</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4343,13 +4345,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2131.026648297158</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1799.963760953587</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1799.963760953587</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y2" t="n">
-        <v>1190.010945960184</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>415.4256366790473</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,7 +4497,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
         <v>529.6040388502502</v>
@@ -4504,34 +4506,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>636.2182158225775</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>636.2182158225775</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>636.2182158225775</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>636.2182158225775</v>
       </c>
       <c r="W4" t="n">
-        <v>120.1212846776637</v>
+        <v>636.2182158225775</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>636.2182158225775</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>415.4256366790473</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="F5" t="n">
         <v>799.1015098861748</v>
@@ -4565,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4577,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2372.61483931396</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2372.61483931396</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>2372.61483931396</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1982.475507338148</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4752,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468208</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4808,46 +4810,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2669.096172420968</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2669.096172420968</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2338.033285077397</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4902,28 +4904,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4986,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>677.5250276678174</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>463.2366044859801</v>
+        <v>587.2612438814011</v>
       </c>
       <c r="T10" t="n">
-        <v>235.9284171545819</v>
+        <v>587.2612438814011</v>
       </c>
       <c r="U10" t="n">
-        <v>235.9284171545819</v>
+        <v>587.2612438814011</v>
       </c>
       <c r="V10" t="n">
-        <v>235.9284171545819</v>
+        <v>587.2612438814011</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545819</v>
+        <v>587.2612438814011</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545819</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341679</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.91112712663</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.1762782006411</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>656.1762782006411</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883054</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>656.1762782006411</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>656.1762782006411</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X13" t="n">
-        <v>656.1762782006411</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y13" t="n">
-        <v>656.1762782006411</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5258,34 +5260,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5358,22 +5360,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.6859735286132</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="C19" t="n">
-        <v>496.7497906007063</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="D19" t="n">
-        <v>496.7497906007063</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="E19" t="n">
-        <v>496.7497906007063</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>496.7497906007063</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
         <v>359.1696912903951</v>
@@ -5704,19 +5706,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6859735286132</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5746,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
@@ -5753,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5838,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1096.475226584133</v>
+        <v>4503.139178847509</v>
       </c>
       <c r="C22" t="n">
-        <v>927.5390436562259</v>
+        <v>4334.202995919602</v>
       </c>
       <c r="D22" t="n">
-        <v>777.4224042438901</v>
+        <v>4184.086356507267</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4503.139178847509</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>4503.139178847509</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>4503.139178847509</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>4503.139178847509</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557902</v>
+        <v>4503.139178847509</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.123691414372</v>
+        <v>4503.139178847509</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690731</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409604</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748353</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742897</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769782</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805655</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098439</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250801</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>2911.709630095314</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>3158.474758001777</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281739</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>3795.657518945771</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>4075.197584164468</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>4555.115143601277</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>4850.22456091699</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098065</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021843</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.92892764123</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409487</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681286</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475753</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710799</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>988.9950526279309</v>
+        <v>1047.141304449381</v>
       </c>
       <c r="C25" t="n">
         <v>972.2646934632137</v>
@@ -6142,55 +6144,55 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557892</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557892</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557892</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347398</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347398</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347398</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347398</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.787631771461</v>
+        <v>1047.141304449381</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.9950526279309</v>
+        <v>1047.141304449381</v>
       </c>
     </row>
     <row r="26">
@@ -6221,37 +6223,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.2349604684849</v>
+        <v>3686.322319899657</v>
       </c>
       <c r="C28" t="n">
-        <v>674.2349604684849</v>
+        <v>3517.38613697175</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684849</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U28" t="n">
-        <v>895.0275396120151</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="V28" t="n">
-        <v>895.0275396120151</v>
+        <v>4606.170084808405</v>
       </c>
       <c r="W28" t="n">
-        <v>895.0275396120151</v>
+        <v>4316.752914771444</v>
       </c>
       <c r="X28" t="n">
-        <v>895.0275396120151</v>
+        <v>4088.763363873427</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.2349604684849</v>
+        <v>3867.970784729897</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823808</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514103</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6485,28 +6487,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6576,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1009.579090436494</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.579090436494</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1009.579090436494</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>1009.579090436494</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6704,46 +6706,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250805</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095318</v>
+        <v>674.4285624571606</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.474758001782</v>
+        <v>921.1936903636246</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281743</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945776</v>
+        <v>1558.376451307618</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526315</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.74515569858</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1117.34779564322</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D34" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241859</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881687973</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799265</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471092</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974657</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980054</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585736</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557892</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557908</v>
+        <v>1387.841167119718</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.99626047346</v>
+        <v>1187.92115703527</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.99626047346</v>
+        <v>964.1357418247756</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.99626047346</v>
+        <v>675.0071030383338</v>
       </c>
       <c r="V34" t="n">
-        <v>1298.99626047346</v>
+        <v>420.3226148324469</v>
       </c>
       <c r="W34" t="n">
-        <v>1298.99626047346</v>
+        <v>130.9054447954863</v>
       </c>
       <c r="X34" t="n">
-        <v>1298.99626047346</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y34" t="n">
-        <v>1298.99626047346</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="35">
@@ -6932,46 +6934,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>3224.712326690731</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>3050.259297409604</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>2901.324887748353</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>2742.087432742897</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>2595.552874769782</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>2362.681322805655</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.498159098439</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250804</v>
+        <v>2500.819361250801</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095317</v>
+        <v>2911.709630095314</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001781</v>
+        <v>3158.474758001777</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281742</v>
+        <v>3465.794891281739</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945775</v>
+        <v>3795.657518945771</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164473</v>
+        <v>4075.197584164468</v>
       </c>
       <c r="P36" t="n">
-        <v>4555.115143601279</v>
+        <v>4565.745155698577</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916993</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>4720.948468098065</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>4526.033852021843</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>4297.92892764123</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>4062.776819409487</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681286</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>3600.687962475753</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>3392.927663710799</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>420.3226148324578</v>
+        <v>868.4856756861151</v>
       </c>
       <c r="C37" t="n">
-        <v>420.3226148324578</v>
+        <v>699.5494927582082</v>
       </c>
       <c r="D37" t="n">
-        <v>420.3226148324578</v>
+        <v>549.4328533458724</v>
       </c>
       <c r="E37" t="n">
-        <v>420.3226148324578</v>
+        <v>401.5197597634793</v>
       </c>
       <c r="F37" t="n">
-        <v>420.3226148324578</v>
+        <v>401.5197597634793</v>
       </c>
       <c r="G37" t="n">
         <v>359.1696912903951</v>
@@ -7090,55 +7092,55 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324578</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>420.3226148324578</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>420.3226148324578</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y37" t="n">
-        <v>420.3226148324578</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,40 +7162,40 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7251,22 +7253,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7287,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>720.4504516500526</v>
+        <v>3609.573402368734</v>
       </c>
       <c r="C40" t="n">
-        <v>551.5142687221457</v>
+        <v>3609.573402368734</v>
       </c>
       <c r="D40" t="n">
-        <v>551.5142687221457</v>
+        <v>3609.573402368734</v>
       </c>
       <c r="E40" t="n">
-        <v>403.6011751397526</v>
+        <v>3609.573402368734</v>
       </c>
       <c r="F40" t="n">
-        <v>256.7112276418422</v>
+        <v>3609.573402368734</v>
       </c>
       <c r="G40" t="n">
-        <v>256.7112276418422</v>
+        <v>3609.573402368734</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380587</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V40" t="n">
-        <v>1009.867621687013</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W40" t="n">
-        <v>720.4504516500526</v>
+        <v>3609.573402368734</v>
       </c>
       <c r="X40" t="n">
-        <v>720.4504516500526</v>
+        <v>3609.573402368734</v>
       </c>
       <c r="Y40" t="n">
-        <v>720.4504516500526</v>
+        <v>3609.573402368734</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,46 +7396,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095317</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.474758001781</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281742</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945775</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164473</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601279</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.5850465240062</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>696.5850465240062</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609669</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>696.5850465240062</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>696.5850465240062</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>696.5850465240062</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7658,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1301.989359467952</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1078.203944257458</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>789.0753054710162</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>789.0753054710162</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>499.6581354340557</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>180.0237016735875</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165104</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208077</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172076</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776735</v>
+        <v>288.4091825776765</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208047</v>
+        <v>288.4091825776765</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208047</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>233.4951267345022</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891734</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>87.24476067055974</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>30.28927014616946</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>44.27839330891791</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>175.2944832206699</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>150.6837655255578</v>
+        <v>93.11897622232233</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368813</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>107.855879804141</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>19.88632263080797</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24889,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>23.61454994042123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871887</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25214,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>105.9521741567355</v>
+        <v>124.5670006750242</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>101.4338790120673</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>115.562358565678</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25789,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.0090221022792</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>2.963168004552131</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883915</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883911</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883911</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883911</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="K2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="K2" t="n">
-        <v>508337.7776590218</v>
-      </c>
       <c r="L2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.310193849552888e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
@@ -26436,28 +26438,28 @@
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.73165600749</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.73165600749</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007481</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007481</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007481</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287066.8555820902</v>
+        <v>-287066.8555820909</v>
       </c>
       <c r="C6" t="n">
-        <v>302901.023632454</v>
+        <v>302901.0236324542</v>
       </c>
       <c r="D6" t="n">
-        <v>302901.0236324542</v>
+        <v>302901.0236324541</v>
       </c>
       <c r="E6" t="n">
-        <v>-116726.3164225986</v>
+        <v>-116726.316422599</v>
       </c>
       <c r="F6" t="n">
-        <v>408433.7200542976</v>
+        <v>408433.7200542981</v>
       </c>
       <c r="G6" t="n">
         <v>408433.7200542976</v>
       </c>
       <c r="H6" t="n">
-        <v>408433.7200542976</v>
+        <v>408433.7200542974</v>
       </c>
       <c r="I6" t="n">
-        <v>408433.7200542975</v>
+        <v>408433.7200542979</v>
       </c>
       <c r="J6" t="n">
-        <v>232010.5008617045</v>
+        <v>232010.5008617047</v>
       </c>
       <c r="K6" t="n">
         <v>408433.7200542976</v>
       </c>
       <c r="L6" t="n">
-        <v>408433.7200542976</v>
+        <v>408433.7200542977</v>
       </c>
       <c r="M6" t="n">
-        <v>273632.7048204605</v>
+        <v>273632.7048204602</v>
       </c>
       <c r="N6" t="n">
-        <v>408433.7200542975</v>
+        <v>408433.7200542977</v>
       </c>
       <c r="O6" t="n">
-        <v>408433.7200542975</v>
+        <v>408433.7200542971</v>
       </c>
       <c r="P6" t="n">
-        <v>408433.7200542975</v>
+        <v>408433.7200542974</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,7 +26746,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26811,13 +26813,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>171.8070202733037</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>136.1053849558762</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27585,25 +27587,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>150.2766282049147</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>205.3930947488479</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11.74551252529363</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>277.3900722153849</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6847473916799</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>85.14112624278593</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>188.6759309463753</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>55.99104848925185</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>125.6900249618413</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>101.8092259831502</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29041,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29238,7 +29240,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-7.520489950029638e-12</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29928,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-7.520489950029638e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -31045,7 +31047,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31054,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,40 +31120,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31160,7 +31162,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,43 +32864,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,43 +33575,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34702,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L12" t="n">
-        <v>429.2814066296118</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145236</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35744,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35978,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523322</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718649</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.37802194151</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092011</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016555568</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118059</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523295</v>
+        <v>495.5025975092011</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523295</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2096122.059672363</v>
+        <v>2089105.044780653</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665972</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.01104463634084</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>115.1187825524132</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>61.86891074510423</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>395.1305332164178</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>60.77270032618484</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>54.460791558339</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>80.23031458972075</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>330.2468901668017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>110.3363129668687</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648052011</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>24.32276211750632</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583938</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>59.18920197600942</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>66.56619049636291</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>46.25307783771938</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.68304162068</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>74.1278448763055</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113147</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>33.35146980184847</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.24096871741</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>41.92656778835342</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>170.960639770913</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>136.9575509524583</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4345,7 +4345,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
         <v>2544.691559791253</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2131.026648297158</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1799.963760953587</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W2" t="n">
-        <v>1799.963760953587</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X2" t="n">
-        <v>1426.498002692507</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1993.546461473041</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.4256366790473</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>246.4894537511404</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511404</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036446</v>
@@ -4497,7 +4497,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
         <v>529.6040388502502</v>
@@ -4506,34 +4506,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>636.2182158225775</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>636.2182158225775</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>636.2182158225775</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>636.2182158225775</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>636.2182158225775</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>636.2182158225775</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>415.4256366790473</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1198.223260609829</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.223260609829</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.223260609829</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1198.223260609829</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2580.733835562671</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2580.733835562671</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2326.972050200762</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.823100673951</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.6405432696254</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1085.223837020925</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>699.4355844226811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>288.4496796330736</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.240383333747</v>
+        <v>1443.489535627676</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2716929833838</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>587.2612438814011</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>587.2612438814011</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>587.2612438814011</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>587.2612438814011</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>587.2612438814011</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>359.2716929833838</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.2716929833838</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5038,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341679</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.91112712663</v>
+        <v>857.5427825698957</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5263,28 +5263,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,31 +5296,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>268.6754855415359</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262956</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765139</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765139</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>496.6650364395533</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>268.6754855415359</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>268.6754855415359</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>223.155231313709</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.0220331715246</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>734.0220331715246</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>734.0220331715246</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>954.8146123150548</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>734.0220331715246</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,22 +5740,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4503.139178847509</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="C22" t="n">
-        <v>4334.202995919602</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507267</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924874</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4503.139178847509</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>4503.139178847509</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V22" t="n">
-        <v>4503.139178847509</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W22" t="n">
-        <v>4503.139178847509</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X22" t="n">
-        <v>4503.139178847509</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="Y22" t="n">
-        <v>4503.139178847509</v>
+        <v>609.3753482118775</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,61 +5980,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690731</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409604</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748353</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742897</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769782</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805655</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098439</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250801</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095314</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.474758001777</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281739</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945771</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164468</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4555.115143601277</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.22456091699</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098065</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021843</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.92892764123</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409487</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681286</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475753</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710799</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1047.141304449381</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557892</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557892</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557892</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347398</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347398</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347398</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W25" t="n">
-        <v>1275.130855347398</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X25" t="n">
-        <v>1047.141304449381</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y25" t="n">
-        <v>1047.141304449381</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6253,25 +6253,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028583</v>
@@ -6311,7 +6311,7 @@
         <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3686.322319899657</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>3517.38613697175</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014291</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014291</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808405</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>4316.752914771444</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>4088.763363873427</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>3867.970784729897</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6445,55 +6445,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823808</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514103</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>534.542980734167</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6578,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080544</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,40 +6712,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571606</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636246</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307618</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526315</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028581</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028581</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028581</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028581</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028581</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241859</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881687973</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799265</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471092</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974657</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980054</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585736</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557892</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119718</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703527</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247756</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383338</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324469</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954863</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028581</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028581</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690731</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409604</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748353</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742897</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769782</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805655</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250801</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095314</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001777</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281739</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945771</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164468</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098065</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021843</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.92892764123</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409487</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681286</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475753</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710799</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.4856756861151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>699.5494927582082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>549.4328533458724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>401.5197597634793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>401.5197597634793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>1270.926719659885</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,52 +7156,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7250,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3609.573402368734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3609.573402368734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3609.573402368734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3609.573402368734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380587</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4036.945405494735</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>3782.260917288848</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>3609.573402368734</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3609.573402368734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3609.573402368734</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7596,10 +7596,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7651,10 +7651,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.658803395178</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>15.8380490462294</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165104</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445211</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>85.30006332127836</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208077</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172076</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229594</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776765</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776765</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298484</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891734</v>
+        <v>218.5846533520993</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>142.9240589811215</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>87.24476067055974</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>100.6806306022649</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>175.2944832206699</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>93.11897622232233</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>64.30500338171969</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>90.96703739368813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635156</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338594</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>48.00368395686547</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>192.3581855871887</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>124.5670006750242</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="38">
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>115.562358565678</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>84.59001010593099</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883911</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>867392.8693883911</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>867392.8693883911</v>
+        <v>867392.8693883915</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>867392.8693883911</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>867392.8693883913</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="15">
@@ -26316,31 +26316,31 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117848</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117845</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590218</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
@@ -26349,10 +26349,10 @@
         <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590215</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768967</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.310193849552888e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="K4" t="n">
-        <v>7916.73165600749</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007485</v>
       </c>
       <c r="M4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="N4" t="n">
         <v>7916.731656007485</v>
       </c>
-      <c r="N4" t="n">
-        <v>7916.73165600749</v>
-      </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26490,25 +26490,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287066.8555820909</v>
+        <v>-287066.8555820908</v>
       </c>
       <c r="C6" t="n">
+        <v>302901.0236324545</v>
+      </c>
+      <c r="D6" t="n">
         <v>302901.0236324542</v>
       </c>
-      <c r="D6" t="n">
-        <v>302901.0236324541</v>
-      </c>
       <c r="E6" t="n">
-        <v>-116726.316422599</v>
+        <v>-117700.9076823199</v>
       </c>
       <c r="F6" t="n">
-        <v>408433.7200542981</v>
+        <v>407459.128794576</v>
       </c>
       <c r="G6" t="n">
-        <v>408433.7200542976</v>
+        <v>407459.1287945759</v>
       </c>
       <c r="H6" t="n">
-        <v>408433.7200542974</v>
+        <v>407459.1287945758</v>
       </c>
       <c r="I6" t="n">
-        <v>408433.7200542979</v>
+        <v>407459.1287945758</v>
       </c>
       <c r="J6" t="n">
-        <v>232010.5008617047</v>
+        <v>231035.9096019829</v>
       </c>
       <c r="K6" t="n">
-        <v>408433.7200542976</v>
+        <v>407459.1287945758</v>
       </c>
       <c r="L6" t="n">
-        <v>408433.7200542977</v>
+        <v>407459.1287945758</v>
       </c>
       <c r="M6" t="n">
-        <v>273632.7048204602</v>
+        <v>272658.1135607387</v>
       </c>
       <c r="N6" t="n">
-        <v>408433.7200542977</v>
+        <v>407459.1287945758</v>
       </c>
       <c r="O6" t="n">
-        <v>408433.7200542971</v>
+        <v>407459.1287945758</v>
       </c>
       <c r="P6" t="n">
-        <v>408433.7200542974</v>
+        <v>407459.1287945758</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,37 +26746,37 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,13 +26792,13 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.2618471346667</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>136.1053849558762</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609829</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>150.2766282049147</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.74551252529363</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>113.6430124827867</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664917</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6847473916799</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>333.5538554310742</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>55.99104848925185</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.59587156758265</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>101.8092259831502</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28316,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28538,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-3.044307409159484e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29240,7 +29240,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-7.520489950029638e-12</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-7.520489950029638e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31056,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,40 +31120,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31162,7 +31162,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,46 +32703,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,43 +32782,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,43 +32864,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,43 +33019,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,43 +33256,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,43 +33493,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,43 +33575,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,43 +33730,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490677</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879394</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>326.2624260966955</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145236</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411085</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315249</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507424</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556559</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>127.210242276185</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523322</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718649</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.37802194151</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734255</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092011</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016555568</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092011</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2089105.044780653</v>
+        <v>2094044.307629685</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.60408762095441</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.52687838733162</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>21.3273839640394</v>
       </c>
       <c r="S5" t="n">
-        <v>60.77270032618484</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>80.23031458972075</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>57.44899573820106</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>70.80276983270126</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733165</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>174.7430637258776</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>24.32276211750632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583938</v>
+        <v>134.4442626460255</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>82.76001926167771</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>66.56619049636291</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>21.09185147932137</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>191.6534898356754</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670925</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>249.5771665821203</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>188.4590648403947</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>136.9575509524583</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036446</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2675.606278933334</v>
       </c>
       <c r="S5" t="n">
-        <v>2580.733835562671</v>
+        <v>2675.606278933334</v>
       </c>
       <c r="T5" t="n">
-        <v>2580.733835562671</v>
+        <v>2675.606278933334</v>
       </c>
       <c r="U5" t="n">
-        <v>2326.972050200762</v>
+        <v>2421.844493571426</v>
       </c>
       <c r="V5" t="n">
-        <v>1995.909162857192</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="W5" t="n">
-        <v>1995.909162857192</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="X5" t="n">
-        <v>1995.909162857192</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="Y5" t="n">
-        <v>1995.909162857192</v>
+        <v>2090.781606227855</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1443.489535627676</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C8" t="n">
-        <v>1443.489535627676</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D8" t="n">
-        <v>1085.223837020925</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="E8" t="n">
-        <v>699.4355844226811</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="F8" t="n">
-        <v>288.4496796330736</v>
+        <v>529.9360785466231</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>111.97227044481</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1443.489535627676</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1443.489535627676</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698957</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5272,58 +5272,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.6754855415359</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262956</v>
+        <v>1363.113985056867</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765139</v>
+        <v>1363.113985056867</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765139</v>
+        <v>1108.42949685098</v>
       </c>
       <c r="W16" t="n">
-        <v>496.6650364395533</v>
+        <v>819.0123268140194</v>
       </c>
       <c r="X16" t="n">
-        <v>268.6754855415359</v>
+        <v>819.0123268140194</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.6754855415359</v>
+        <v>598.2197476704893</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201016</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201016</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.3753482118775</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488382</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V22" t="n">
-        <v>898.7925182488382</v>
+        <v>933.2366688293938</v>
       </c>
       <c r="W22" t="n">
-        <v>609.3753482118775</v>
+        <v>643.8194987924333</v>
       </c>
       <c r="X22" t="n">
-        <v>609.3753482118775</v>
+        <v>415.8299478944159</v>
       </c>
       <c r="Y22" t="n">
-        <v>609.3753482118775</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1305.326886885503</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1016.198248099061</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>761.5137598931742</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>472.0965898562135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6445,55 +6445,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6533,31 +6533,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,19 +6700,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,7 +6961,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X37" t="n">
-        <v>241.9805482336712</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7174,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>657.2731156405996</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>429.2835647425823</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="41">
@@ -7411,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1360.575309999864</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1071.446671213422</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>816.762183007535</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>15.8380490462294</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>5.088916456059735</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>142.9240589811215</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>87.10329841236378</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>33.38685156731853</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>203.7629790749133</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>100.6806306022649</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24183,19 +24183,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>197.4928018727734</v>
       </c>
     </row>
     <row r="23">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>29.89407122271382</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.30500338171969</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24654,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>30.90698584635156</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>48.00368395686547</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>140.3375291694985</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338565</v>
+        <v>36.9458317544707</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>33.0884962179945</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>84.59001010593099</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867392.8693883913</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>867392.8693883911</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883915</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883915</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117848</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117845</v>
-      </c>
       <c r="E2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="F2" t="n">
         <v>508337.7776590218</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="I2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="G2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590216</v>
-      </c>
       <c r="J2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
@@ -26349,13 +26349,13 @@
         <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="O2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26472,43 +26472,43 @@
         <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287066.8555820908</v>
+        <v>-287066.8555820906</v>
       </c>
       <c r="C6" t="n">
+        <v>302901.023632454</v>
+      </c>
+      <c r="D6" t="n">
         <v>302901.0236324545</v>
       </c>
-      <c r="D6" t="n">
-        <v>302901.0236324542</v>
-      </c>
       <c r="E6" t="n">
-        <v>-117700.9076823199</v>
+        <v>-116823.775548571</v>
       </c>
       <c r="F6" t="n">
-        <v>407459.128794576</v>
+        <v>408336.2609283255</v>
       </c>
       <c r="G6" t="n">
-        <v>407459.1287945759</v>
+        <v>408336.2609283255</v>
       </c>
       <c r="H6" t="n">
-        <v>407459.1287945758</v>
+        <v>408336.2609283255</v>
       </c>
       <c r="I6" t="n">
-        <v>407459.1287945758</v>
+        <v>408336.2609283254</v>
       </c>
       <c r="J6" t="n">
-        <v>231035.9096019829</v>
+        <v>231913.0417357326</v>
       </c>
       <c r="K6" t="n">
-        <v>407459.1287945758</v>
+        <v>408336.2609283256</v>
       </c>
       <c r="L6" t="n">
-        <v>407459.1287945758</v>
+        <v>408336.2609283253</v>
       </c>
       <c r="M6" t="n">
-        <v>272658.1135607387</v>
+        <v>273535.2456944879</v>
       </c>
       <c r="N6" t="n">
-        <v>407459.1287945758</v>
+        <v>408336.2609283252</v>
       </c>
       <c r="O6" t="n">
-        <v>407459.1287945758</v>
+        <v>408336.2609283253</v>
       </c>
       <c r="P6" t="n">
-        <v>407459.1287945758</v>
+        <v>408336.2609283255</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,28 +26792,28 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.2278925609829</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>120.4387434050066</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>33.1510186107723</v>
       </c>
       <c r="S5" t="n">
-        <v>113.6430124827867</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1681237664917</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>333.5538554310742</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>266.4737770261561</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>96.50703242634965</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758265</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28316,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28538,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-3.044307409159484e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,31 +31928,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,31 +32165,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>326.2624260966955</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
